--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H2">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I2">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J2">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N2">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O2">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P2">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q2">
-        <v>286.798963621144</v>
+        <v>221.0778942750919</v>
       </c>
       <c r="R2">
-        <v>2581.190672590296</v>
+        <v>1989.701048475828</v>
       </c>
       <c r="S2">
-        <v>0.008894078757755698</v>
+        <v>0.01006571860139199</v>
       </c>
       <c r="T2">
-        <v>0.0088940787577557</v>
+        <v>0.01006571860139199</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H3">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I3">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J3">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.929707</v>
       </c>
       <c r="O3">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P3">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q3">
-        <v>313.601460686604</v>
+        <v>223.544864802059</v>
       </c>
       <c r="R3">
-        <v>2822.413146179436</v>
+        <v>2011.903783218531</v>
       </c>
       <c r="S3">
-        <v>0.00972526558212518</v>
+        <v>0.01017804023899307</v>
       </c>
       <c r="T3">
-        <v>0.009725265582125182</v>
+        <v>0.01017804023899308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H4">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I4">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J4">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N4">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O4">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P4">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q4">
-        <v>264.799796911412</v>
+        <v>254.5478618868003</v>
       </c>
       <c r="R4">
-        <v>2383.198172202708</v>
+        <v>2290.930756981203</v>
       </c>
       <c r="S4">
-        <v>0.008211850625370184</v>
+        <v>0.01158961259668195</v>
       </c>
       <c r="T4">
-        <v>0.008211850625370186</v>
+        <v>0.01158961259668195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H5">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I5">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J5">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N5">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O5">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P5">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q5">
-        <v>51.229848267048</v>
+        <v>37.4880955451871</v>
       </c>
       <c r="R5">
-        <v>461.068634403432</v>
+        <v>337.3928599066839</v>
       </c>
       <c r="S5">
-        <v>0.001588716707626928</v>
+        <v>0.001706840124822304</v>
       </c>
       <c r="T5">
-        <v>0.001588716707626929</v>
+        <v>0.001706840124822304</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H6">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I6">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J6">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N6">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O6">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P6">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q6">
-        <v>331.554016594984</v>
+        <v>155.4313892312638</v>
       </c>
       <c r="R6">
-        <v>2983.986149354856</v>
+        <v>1398.882503081375</v>
       </c>
       <c r="S6">
-        <v>0.01028200206448942</v>
+        <v>0.007076820733051468</v>
       </c>
       <c r="T6">
-        <v>0.01028200206448942</v>
+        <v>0.007076820733051469</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.063288</v>
       </c>
       <c r="I7">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J7">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N7">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O7">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P7">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q7">
-        <v>16.84755049575289</v>
+        <v>18.218721097312</v>
       </c>
       <c r="R7">
-        <v>151.627954461776</v>
+        <v>163.968489875808</v>
       </c>
       <c r="S7">
-        <v>0.0005224685580887684</v>
+        <v>0.0008295018389065928</v>
       </c>
       <c r="T7">
-        <v>0.0005224685580887684</v>
+        <v>0.0008295018389065928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.063288</v>
       </c>
       <c r="I8">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J8">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>155.929707</v>
       </c>
       <c r="O8">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P8">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q8">
         <v>18.422020699624</v>
@@ -948,10 +948,10 @@
         <v>165.798186296616</v>
       </c>
       <c r="S8">
-        <v>0.0005712953105224615</v>
+        <v>0.0008387581084913808</v>
       </c>
       <c r="T8">
-        <v>0.0005712953105224615</v>
+        <v>0.0008387581084913808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.063288</v>
       </c>
       <c r="I9">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J9">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N9">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O9">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P9">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q9">
-        <v>15.55524431958311</v>
+        <v>20.97693447297867</v>
       </c>
       <c r="R9">
-        <v>139.997198876248</v>
+        <v>188.792410256808</v>
       </c>
       <c r="S9">
-        <v>0.0004823921478923518</v>
+        <v>0.0009550838188376556</v>
       </c>
       <c r="T9">
-        <v>0.0004823921478923519</v>
+        <v>0.0009550838188376554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.063288</v>
       </c>
       <c r="I10">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J10">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N10">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O10">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P10">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q10">
-        <v>3.009416228954667</v>
+        <v>3.089341697624889</v>
       </c>
       <c r="R10">
-        <v>27.084746060592</v>
+        <v>27.804075278624</v>
       </c>
       <c r="S10">
-        <v>9.332664461977735E-05</v>
+        <v>0.000140658315449417</v>
       </c>
       <c r="T10">
-        <v>9.332664461977735E-05</v>
+        <v>0.000140658315449417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.063288</v>
       </c>
       <c r="I11">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J11">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N11">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O11">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P11">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q11">
-        <v>19.47661513879289</v>
+        <v>12.80888412411111</v>
       </c>
       <c r="R11">
-        <v>175.289536249136</v>
+        <v>115.279957117</v>
       </c>
       <c r="S11">
-        <v>0.0006039999126626897</v>
+        <v>0.0005831909319287646</v>
       </c>
       <c r="T11">
-        <v>0.0006039999126626897</v>
+        <v>0.0005831909319287646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H12">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I12">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J12">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N12">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O12">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P12">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q12">
-        <v>3110.733128649741</v>
+        <v>3169.097743176399</v>
       </c>
       <c r="R12">
-        <v>27996.59815784767</v>
+        <v>28521.8796885876</v>
       </c>
       <c r="S12">
-        <v>0.09646863814026298</v>
+        <v>0.1442896233823683</v>
       </c>
       <c r="T12">
-        <v>0.09646863814026298</v>
+        <v>0.1442896233823683</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H13">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I13">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J13">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.929707</v>
       </c>
       <c r="O13">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P13">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q13">
-        <v>3401.443438405955</v>
+        <v>3204.4611645403</v>
       </c>
       <c r="R13">
-        <v>30612.99094565359</v>
+        <v>28840.1504808627</v>
       </c>
       <c r="S13">
-        <v>0.105484013781853</v>
+        <v>0.1458997266873534</v>
       </c>
       <c r="T13">
-        <v>0.105484013781853</v>
+        <v>0.1458997266873535</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H14">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I14">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J14">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N14">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O14">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P14">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q14">
-        <v>2872.121608501254</v>
+        <v>3648.881573080567</v>
       </c>
       <c r="R14">
-        <v>25849.09447651128</v>
+        <v>32839.9341577251</v>
       </c>
       <c r="S14">
-        <v>0.0890689264191569</v>
+        <v>0.1661342724692833</v>
       </c>
       <c r="T14">
-        <v>0.0890689264191569</v>
+        <v>0.1661342724692833</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H15">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I15">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J15">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N15">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O15">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P15">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q15">
-        <v>555.6588635045433</v>
+        <v>537.3827147114222</v>
       </c>
       <c r="R15">
-        <v>5000.929771540889</v>
+        <v>4836.444432402799</v>
       </c>
       <c r="S15">
-        <v>0.01723183944619416</v>
+        <v>0.02446713727427933</v>
       </c>
       <c r="T15">
-        <v>0.01723183944619416</v>
+        <v>0.02446713727427933</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H16">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I16">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J16">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N16">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O16">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P16">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q16">
-        <v>3596.163843609042</v>
+        <v>2228.071089815277</v>
       </c>
       <c r="R16">
-        <v>32365.47459248137</v>
+        <v>20052.6398083375</v>
       </c>
       <c r="S16">
-        <v>0.1115225942486433</v>
+        <v>0.1014445007607626</v>
       </c>
       <c r="T16">
-        <v>0.1115225942486433</v>
+        <v>0.1014445007607626</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H17">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I17">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J17">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N17">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O17">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P17">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q17">
-        <v>6.382050276108</v>
+        <v>5.38086310896</v>
       </c>
       <c r="R17">
-        <v>57.438452484972</v>
+        <v>48.42776798063999</v>
       </c>
       <c r="S17">
-        <v>0.0001979172346893247</v>
+        <v>0.0002449917214247</v>
       </c>
       <c r="T17">
-        <v>0.0001979172346893247</v>
+        <v>0.0002449917214247</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H18">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I18">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J18">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.929707</v>
       </c>
       <c r="O18">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P18">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q18">
-        <v>6.978478107078001</v>
+        <v>5.44090724292</v>
       </c>
       <c r="R18">
-        <v>62.806302963702</v>
+        <v>48.96816518628</v>
       </c>
       <c r="S18">
-        <v>0.0002164133827750338</v>
+        <v>0.0002477255422713632</v>
       </c>
       <c r="T18">
-        <v>0.0002164133827750338</v>
+        <v>0.0002477255422713632</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H19">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I19">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J19">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N19">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O19">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P19">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q19">
-        <v>5.892509497433999</v>
+        <v>6.19549595396</v>
       </c>
       <c r="R19">
-        <v>53.032585476906</v>
+        <v>55.75946358564</v>
       </c>
       <c r="S19">
-        <v>0.0001827358191580915</v>
+        <v>0.0002820821098966389</v>
       </c>
       <c r="T19">
-        <v>0.0001827358191580916</v>
+        <v>0.0002820821098966388</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H20">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I20">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J20">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N20">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O20">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P20">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q20">
-        <v>1.140002262036</v>
+        <v>0.9124309375466666</v>
       </c>
       <c r="R20">
-        <v>10.260020358324</v>
+        <v>8.211878437919999</v>
       </c>
       <c r="S20">
-        <v>3.535323062032266E-05</v>
+        <v>4.154315423830132E-05</v>
       </c>
       <c r="T20">
-        <v>3.535323062032266E-05</v>
+        <v>4.154315423830131E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H21">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I21">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J21">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N21">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O21">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P21">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q21">
-        <v>7.377970883988</v>
+        <v>3.783078498333333</v>
       </c>
       <c r="R21">
-        <v>66.401737955892</v>
+        <v>34.047706485</v>
       </c>
       <c r="S21">
-        <v>0.0002288022707128775</v>
+        <v>0.0001722442840160984</v>
       </c>
       <c r="T21">
-        <v>0.0002288022707128776</v>
+        <v>0.0001722442840160984</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H22">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I22">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J22">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>47.53430066666667</v>
+        <v>51.402972</v>
       </c>
       <c r="N22">
-        <v>142.602902</v>
+        <v>154.208916</v>
       </c>
       <c r="O22">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="P22">
-        <v>0.2298097923041026</v>
+        <v>0.2478201393026385</v>
       </c>
       <c r="Q22">
-        <v>3989.697788815752</v>
+        <v>2029.209698307184</v>
       </c>
       <c r="R22">
-        <v>35907.28009934177</v>
+        <v>18262.88728476466</v>
       </c>
       <c r="S22">
-        <v>0.1237266896133058</v>
+        <v>0.09239030375854684</v>
       </c>
       <c r="T22">
-        <v>0.1237266896133058</v>
+        <v>0.09239030375854684</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H23">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I23">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J23">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>155.929707</v>
       </c>
       <c r="O23">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="P23">
-        <v>0.2512864259922955</v>
+        <v>0.2505855219821376</v>
       </c>
       <c r="Q23">
-        <v>4362.550821220932</v>
+        <v>2051.853303336869</v>
       </c>
       <c r="R23">
-        <v>39262.95739098839</v>
+        <v>18466.67973003181</v>
       </c>
       <c r="S23">
-        <v>0.1352894379350198</v>
+        <v>0.0934212714050283</v>
       </c>
       <c r="T23">
-        <v>0.1352894379350198</v>
+        <v>0.0934212714050283</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H24">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I24">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J24">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.88814033333333</v>
+        <v>59.18509700000001</v>
       </c>
       <c r="N24">
-        <v>131.664421</v>
+        <v>177.555291</v>
       </c>
       <c r="O24">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614992</v>
       </c>
       <c r="P24">
-        <v>0.2121820300953617</v>
+        <v>0.2853387345614991</v>
       </c>
       <c r="Q24">
-        <v>3683.664511465596</v>
+        <v>2336.420797374351</v>
       </c>
       <c r="R24">
-        <v>33152.98060319036</v>
+        <v>21027.78717636916</v>
       </c>
       <c r="S24">
-        <v>0.1142361250837842</v>
+        <v>0.1063776835667996</v>
       </c>
       <c r="T24">
-        <v>0.1142361250837842</v>
+        <v>0.1063776835667996</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H25">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I25">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J25">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.490878</v>
+        <v>8.716382666666666</v>
       </c>
       <c r="N25">
-        <v>25.472634</v>
+        <v>26.149148</v>
       </c>
       <c r="O25">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614693</v>
       </c>
       <c r="P25">
-        <v>0.04105008135794053</v>
+        <v>0.04202276799614692</v>
       </c>
       <c r="Q25">
-        <v>712.665100918584</v>
+        <v>344.0923268280409</v>
       </c>
       <c r="R25">
-        <v>6413.985908267256</v>
+        <v>3096.830941452368</v>
       </c>
       <c r="S25">
-        <v>0.02210084532887934</v>
+        <v>0.01566658912735758</v>
       </c>
       <c r="T25">
-        <v>0.02210084532887935</v>
+        <v>0.01566658912735757</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H26">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I26">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J26">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>54.95204066666668</v>
+        <v>36.13945833333333</v>
       </c>
       <c r="N26">
-        <v>164.856122</v>
+        <v>108.418375</v>
       </c>
       <c r="O26">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="P26">
-        <v>0.2656716702502996</v>
+        <v>0.1742328361575779</v>
       </c>
       <c r="Q26">
-        <v>4612.291167932472</v>
+        <v>1426.659519639611</v>
       </c>
       <c r="R26">
-        <v>41510.62051139226</v>
+        <v>12839.9356767565</v>
       </c>
       <c r="S26">
-        <v>0.1430342717537913</v>
+        <v>0.06495607944781898</v>
       </c>
       <c r="T26">
-        <v>0.1430342717537913</v>
+        <v>0.06495607944781898</v>
       </c>
     </row>
   </sheetData>
